--- a/CashFlow/ORLY_cashflow.xlsx
+++ b/CashFlow/ORLY_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>14331000000.0</v>
+        <v>-61012000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>14266000000.0</v>
+        <v>-198864000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>10528074000.0</v>
+        <v>-161165000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>6915191000.0</v>
+        <v>-248895000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3352493000.0</v>
+        <v>-311444000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-239912000.0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>558115000.0</v>
+        <v>16523000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>580608000.0</v>
+        <v>15963000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>512595000.0</v>
+        <v>11809164000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>403062000.0</v>
+        <v>7762559000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>233615000.0</v>
+        <v>3835031000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>89391000.0</v>
